--- a/branches/update-code-systems/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-arv-treatment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="564">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1485,6 +1485,220 @@
   </si>
   <si>
     <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-arv-regimen</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.coding.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].coding.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.coding.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].coding.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.coding.system</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.coding.version</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.coding.code</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.coding.display</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.coding.userSelected</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]:productCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>ARV regimen</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.dailyAmount</t>
@@ -1872,7 +2086,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1881,8 +2095,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="75.64453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="32.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1909,7 +2123,7 @@
     <col min="26" max="26" width="65.0078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -8903,11 +9117,11 @@
         <v>471</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8926,18 +9140,16 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>473</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>474</v>
+        <v>309</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>475</v>
+        <v>310</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>476</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8985,7 +9197,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>471</v>
+        <v>311</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8997,38 +9209,38 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>477</v>
+        <v>312</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9040,15 +9252,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>473</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>480</v>
+        <v>134</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9085,51 +9299,51 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>479</v>
+        <v>315</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>482</v>
+        <v>312</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9140,7 +9354,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9149,19 +9363,23 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>213</v>
+        <v>478</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9209,13 +9427,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -9227,21 +9445,21 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>340</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9264,18 +9482,16 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>489</v>
+        <v>309</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>490</v>
+        <v>310</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9323,35 +9539,1291 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
+      <c r="B66" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
+      <c r="H66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK65" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>340</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN65">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9361,7 +10833,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/update-code-systems/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
